--- a/medicine/Mort/Cimetière_américain_de_Brookwood/Cimetière_américain_de_Brookwood.xlsx
+++ b/medicine/Mort/Cimetière_américain_de_Brookwood/Cimetière_américain_de_Brookwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_am%C3%A9ricain_de_Brookwood</t>
+          <t>Cimetière_américain_de_Brookwood</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière américain de Brookwood (en anglais : Brookwood American Cemetery and Memorial) est un cimetière militaire américain de la Première Guerre mondiale, situé à 45 kilomètres au sud-est de Londres. C'est également le seul cimetière américain de la Première Guerre mondiale au Royaume-Uni.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_am%C3%A9ricain_de_Brookwood</t>
+          <t>Cimetière_américain_de_Brookwood</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">468 soldats américains tombés pendant la guerre y reposent. Le cimetière a une superficie de 1,8 hectare et est situé à proximité du cimetière civil éponyme. Il est géré par l'American Battle Monuments Commission. La plupart des morts enterrés sont des membres de l'American Expeditionary Force ayant péri en Grande-Bretagne ou dans ses eaux territoriales (notamment les victimes de l'attaque du SS Tuscania par le U-Boot allemand UB-77 le 5 février 1918).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_am%C3%A9ricain_de_Brookwood</t>
+          <t>Cimetière_américain_de_Brookwood</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
